--- a/template.xlsx
+++ b/template.xlsx
@@ -343,7 +343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L251"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -400,27 +400,32 @@
           <t>학부모민원</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>다문화여부</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>특수여부</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ADHD여부</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>분리요청학생</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>배려요청학생</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>비고</t>
         </is>
@@ -430,1752 +435,1752 @@
       <c r="A2" s="2" t="n"/>
       <c r="D2" s="3" t="n"/>
       <c r="F2" s="6" t="n"/>
-      <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="5" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n"/>
       <c r="D3" s="3" t="n"/>
-      <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="5" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>
       <c r="D4" s="3" t="n"/>
-      <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="5" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="5" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
       <c r="D5" s="3" t="n"/>
-      <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="5" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
       <c r="D6" s="3" t="n"/>
-      <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="5" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
       <c r="D7" s="3" t="n"/>
-      <c r="J7" s="4" t="n"/>
       <c r="K7" s="4" t="n"/>
-      <c r="L7" s="5" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
       <c r="D8" s="3" t="n"/>
-      <c r="J8" s="4" t="n"/>
       <c r="K8" s="4" t="n"/>
-      <c r="L8" s="5" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
       <c r="D9" s="3" t="n"/>
-      <c r="J9" s="4" t="n"/>
       <c r="K9" s="4" t="n"/>
-      <c r="L9" s="5" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n"/>
       <c r="D10" s="3" t="n"/>
-      <c r="J10" s="4" t="n"/>
       <c r="K10" s="4" t="n"/>
-      <c r="L10" s="5" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n"/>
       <c r="D11" s="3" t="n"/>
-      <c r="J11" s="4" t="n"/>
       <c r="K11" s="4" t="n"/>
-      <c r="L11" s="5" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
       <c r="D12" s="3" t="n"/>
-      <c r="J12" s="4" t="n"/>
       <c r="K12" s="4" t="n"/>
-      <c r="L12" s="5" t="n"/>
+      <c r="L12" s="4" t="n"/>
+      <c r="M12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
       <c r="D13" s="3" t="n"/>
-      <c r="J13" s="4" t="n"/>
       <c r="K13" s="4" t="n"/>
-      <c r="L13" s="5" t="n"/>
+      <c r="L13" s="4" t="n"/>
+      <c r="M13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
       <c r="D14" s="3" t="n"/>
-      <c r="J14" s="4" t="n"/>
       <c r="K14" s="4" t="n"/>
-      <c r="L14" s="5" t="n"/>
+      <c r="L14" s="4" t="n"/>
+      <c r="M14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
       <c r="D15" s="3" t="n"/>
-      <c r="J15" s="4" t="n"/>
       <c r="K15" s="4" t="n"/>
-      <c r="L15" s="5" t="n"/>
+      <c r="L15" s="4" t="n"/>
+      <c r="M15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
       <c r="D16" s="3" t="n"/>
-      <c r="J16" s="4" t="n"/>
       <c r="K16" s="4" t="n"/>
-      <c r="L16" s="5" t="n"/>
+      <c r="L16" s="4" t="n"/>
+      <c r="M16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
       <c r="D17" s="3" t="n"/>
-      <c r="J17" s="4" t="n"/>
       <c r="K17" s="4" t="n"/>
-      <c r="L17" s="5" t="n"/>
+      <c r="L17" s="4" t="n"/>
+      <c r="M17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n"/>
       <c r="D18" s="3" t="n"/>
-      <c r="J18" s="4" t="n"/>
       <c r="K18" s="4" t="n"/>
-      <c r="L18" s="5" t="n"/>
+      <c r="L18" s="4" t="n"/>
+      <c r="M18" s="5" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
       <c r="D19" s="3" t="n"/>
-      <c r="J19" s="4" t="n"/>
       <c r="K19" s="4" t="n"/>
-      <c r="L19" s="5" t="n"/>
+      <c r="L19" s="4" t="n"/>
+      <c r="M19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
       <c r="D20" s="3" t="n"/>
-      <c r="J20" s="4" t="n"/>
       <c r="K20" s="4" t="n"/>
-      <c r="L20" s="5" t="n"/>
+      <c r="L20" s="4" t="n"/>
+      <c r="M20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
       <c r="D21" s="3" t="n"/>
-      <c r="J21" s="4" t="n"/>
       <c r="K21" s="4" t="n"/>
-      <c r="L21" s="5" t="n"/>
+      <c r="L21" s="4" t="n"/>
+      <c r="M21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n"/>
       <c r="D22" s="3" t="n"/>
-      <c r="J22" s="4" t="n"/>
       <c r="K22" s="4" t="n"/>
-      <c r="L22" s="5" t="n"/>
+      <c r="L22" s="4" t="n"/>
+      <c r="M22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n"/>
       <c r="D23" s="3" t="n"/>
-      <c r="J23" s="4" t="n"/>
       <c r="K23" s="4" t="n"/>
-      <c r="L23" s="5" t="n"/>
+      <c r="L23" s="4" t="n"/>
+      <c r="M23" s="5" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n"/>
       <c r="D24" s="3" t="n"/>
-      <c r="J24" s="4" t="n"/>
       <c r="K24" s="4" t="n"/>
-      <c r="L24" s="5" t="n"/>
+      <c r="L24" s="4" t="n"/>
+      <c r="M24" s="5" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n"/>
       <c r="D25" s="3" t="n"/>
-      <c r="J25" s="4" t="n"/>
       <c r="K25" s="4" t="n"/>
-      <c r="L25" s="5" t="n"/>
+      <c r="L25" s="4" t="n"/>
+      <c r="M25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n"/>
       <c r="D26" s="3" t="n"/>
-      <c r="J26" s="4" t="n"/>
       <c r="K26" s="4" t="n"/>
-      <c r="L26" s="5" t="n"/>
+      <c r="L26" s="4" t="n"/>
+      <c r="M26" s="5" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n"/>
       <c r="D27" s="3" t="n"/>
-      <c r="J27" s="4" t="n"/>
       <c r="K27" s="4" t="n"/>
-      <c r="L27" s="5" t="n"/>
+      <c r="L27" s="4" t="n"/>
+      <c r="M27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n"/>
       <c r="D28" s="3" t="n"/>
-      <c r="J28" s="4" t="n"/>
       <c r="K28" s="4" t="n"/>
-      <c r="L28" s="5" t="n"/>
+      <c r="L28" s="4" t="n"/>
+      <c r="M28" s="5" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
       <c r="D29" s="3" t="n"/>
-      <c r="J29" s="4" t="n"/>
       <c r="K29" s="4" t="n"/>
-      <c r="L29" s="5" t="n"/>
+      <c r="L29" s="4" t="n"/>
+      <c r="M29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n"/>
       <c r="D30" s="3" t="n"/>
-      <c r="J30" s="4" t="n"/>
       <c r="K30" s="4" t="n"/>
-      <c r="L30" s="5" t="n"/>
+      <c r="L30" s="4" t="n"/>
+      <c r="M30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n"/>
       <c r="D31" s="3" t="n"/>
-      <c r="J31" s="4" t="n"/>
       <c r="K31" s="4" t="n"/>
-      <c r="L31" s="5" t="n"/>
+      <c r="L31" s="4" t="n"/>
+      <c r="M31" s="5" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n"/>
       <c r="D32" s="3" t="n"/>
-      <c r="J32" s="4" t="n"/>
       <c r="K32" s="4" t="n"/>
-      <c r="L32" s="5" t="n"/>
+      <c r="L32" s="4" t="n"/>
+      <c r="M32" s="5" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n"/>
       <c r="D33" s="3" t="n"/>
-      <c r="J33" s="4" t="n"/>
       <c r="K33" s="4" t="n"/>
-      <c r="L33" s="5" t="n"/>
+      <c r="L33" s="4" t="n"/>
+      <c r="M33" s="5" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n"/>
       <c r="D34" s="3" t="n"/>
-      <c r="J34" s="4" t="n"/>
       <c r="K34" s="4" t="n"/>
-      <c r="L34" s="5" t="n"/>
+      <c r="L34" s="4" t="n"/>
+      <c r="M34" s="5" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n"/>
       <c r="D35" s="3" t="n"/>
-      <c r="J35" s="4" t="n"/>
       <c r="K35" s="4" t="n"/>
-      <c r="L35" s="5" t="n"/>
+      <c r="L35" s="4" t="n"/>
+      <c r="M35" s="5" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n"/>
       <c r="D36" s="3" t="n"/>
-      <c r="J36" s="4" t="n"/>
       <c r="K36" s="4" t="n"/>
-      <c r="L36" s="5" t="n"/>
+      <c r="L36" s="4" t="n"/>
+      <c r="M36" s="5" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n"/>
       <c r="D37" s="3" t="n"/>
-      <c r="J37" s="4" t="n"/>
       <c r="K37" s="4" t="n"/>
-      <c r="L37" s="5" t="n"/>
+      <c r="L37" s="4" t="n"/>
+      <c r="M37" s="5" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n"/>
       <c r="D38" s="3" t="n"/>
-      <c r="J38" s="4" t="n"/>
       <c r="K38" s="4" t="n"/>
-      <c r="L38" s="5" t="n"/>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="5" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="J39" s="4" t="n"/>
       <c r="K39" s="4" t="n"/>
-      <c r="L39" s="5" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="5" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n"/>
       <c r="D40" s="3" t="n"/>
-      <c r="J40" s="4" t="n"/>
       <c r="K40" s="4" t="n"/>
-      <c r="L40" s="5" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="5" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n"/>
       <c r="D41" s="3" t="n"/>
-      <c r="J41" s="4" t="n"/>
       <c r="K41" s="4" t="n"/>
-      <c r="L41" s="5" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="5" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n"/>
       <c r="D42" s="3" t="n"/>
-      <c r="J42" s="4" t="n"/>
       <c r="K42" s="4" t="n"/>
-      <c r="L42" s="5" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="5" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n"/>
       <c r="D43" s="3" t="n"/>
-      <c r="J43" s="4" t="n"/>
       <c r="K43" s="4" t="n"/>
-      <c r="L43" s="5" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="5" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n"/>
       <c r="D44" s="3" t="n"/>
-      <c r="J44" s="4" t="n"/>
       <c r="K44" s="4" t="n"/>
-      <c r="L44" s="5" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="5" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n"/>
       <c r="D45" s="3" t="n"/>
-      <c r="J45" s="4" t="n"/>
       <c r="K45" s="4" t="n"/>
-      <c r="L45" s="5" t="n"/>
+      <c r="L45" s="4" t="n"/>
+      <c r="M45" s="5" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n"/>
       <c r="D46" s="3" t="n"/>
-      <c r="J46" s="4" t="n"/>
       <c r="K46" s="4" t="n"/>
-      <c r="L46" s="5" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="5" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n"/>
       <c r="D47" s="3" t="n"/>
-      <c r="J47" s="4" t="n"/>
       <c r="K47" s="4" t="n"/>
-      <c r="L47" s="5" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="5" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n"/>
       <c r="D48" s="3" t="n"/>
-      <c r="J48" s="4" t="n"/>
       <c r="K48" s="4" t="n"/>
-      <c r="L48" s="5" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="5" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n"/>
       <c r="D49" s="3" t="n"/>
-      <c r="J49" s="4" t="n"/>
       <c r="K49" s="4" t="n"/>
-      <c r="L49" s="5" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="5" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n"/>
       <c r="D50" s="3" t="n"/>
-      <c r="J50" s="4" t="n"/>
       <c r="K50" s="4" t="n"/>
-      <c r="L50" s="5" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="5" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n"/>
       <c r="D51" s="3" t="n"/>
-      <c r="J51" s="4" t="n"/>
       <c r="K51" s="4" t="n"/>
-      <c r="L51" s="5" t="n"/>
+      <c r="L51" s="4" t="n"/>
+      <c r="M51" s="5" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n"/>
       <c r="D52" s="3" t="n"/>
-      <c r="J52" s="4" t="n"/>
       <c r="K52" s="4" t="n"/>
-      <c r="L52" s="5" t="n"/>
+      <c r="L52" s="4" t="n"/>
+      <c r="M52" s="5" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n"/>
       <c r="D53" s="3" t="n"/>
-      <c r="J53" s="4" t="n"/>
       <c r="K53" s="4" t="n"/>
-      <c r="L53" s="5" t="n"/>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="5" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n"/>
       <c r="D54" s="3" t="n"/>
-      <c r="J54" s="4" t="n"/>
       <c r="K54" s="4" t="n"/>
-      <c r="L54" s="5" t="n"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="5" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n"/>
       <c r="D55" s="3" t="n"/>
-      <c r="J55" s="4" t="n"/>
       <c r="K55" s="4" t="n"/>
-      <c r="L55" s="5" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="5" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n"/>
       <c r="D56" s="3" t="n"/>
-      <c r="J56" s="4" t="n"/>
       <c r="K56" s="4" t="n"/>
-      <c r="L56" s="5" t="n"/>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="5" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n"/>
       <c r="D57" s="3" t="n"/>
-      <c r="J57" s="4" t="n"/>
       <c r="K57" s="4" t="n"/>
-      <c r="L57" s="5" t="n"/>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="5" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n"/>
       <c r="D58" s="3" t="n"/>
-      <c r="J58" s="4" t="n"/>
       <c r="K58" s="4" t="n"/>
-      <c r="L58" s="5" t="n"/>
+      <c r="L58" s="4" t="n"/>
+      <c r="M58" s="5" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n"/>
       <c r="D59" s="3" t="n"/>
-      <c r="J59" s="4" t="n"/>
       <c r="K59" s="4" t="n"/>
-      <c r="L59" s="5" t="n"/>
+      <c r="L59" s="4" t="n"/>
+      <c r="M59" s="5" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n"/>
       <c r="D60" s="3" t="n"/>
-      <c r="J60" s="4" t="n"/>
       <c r="K60" s="4" t="n"/>
-      <c r="L60" s="5" t="n"/>
+      <c r="L60" s="4" t="n"/>
+      <c r="M60" s="5" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n"/>
       <c r="D61" s="3" t="n"/>
-      <c r="J61" s="4" t="n"/>
       <c r="K61" s="4" t="n"/>
-      <c r="L61" s="5" t="n"/>
+      <c r="L61" s="4" t="n"/>
+      <c r="M61" s="5" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n"/>
       <c r="D62" s="3" t="n"/>
-      <c r="J62" s="4" t="n"/>
       <c r="K62" s="4" t="n"/>
-      <c r="L62" s="5" t="n"/>
+      <c r="L62" s="4" t="n"/>
+      <c r="M62" s="5" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n"/>
       <c r="D63" s="3" t="n"/>
-      <c r="J63" s="4" t="n"/>
       <c r="K63" s="4" t="n"/>
-      <c r="L63" s="5" t="n"/>
+      <c r="L63" s="4" t="n"/>
+      <c r="M63" s="5" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n"/>
       <c r="D64" s="3" t="n"/>
-      <c r="J64" s="4" t="n"/>
       <c r="K64" s="4" t="n"/>
-      <c r="L64" s="5" t="n"/>
+      <c r="L64" s="4" t="n"/>
+      <c r="M64" s="5" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n"/>
       <c r="D65" s="3" t="n"/>
-      <c r="J65" s="4" t="n"/>
       <c r="K65" s="4" t="n"/>
-      <c r="L65" s="5" t="n"/>
+      <c r="L65" s="4" t="n"/>
+      <c r="M65" s="5" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n"/>
       <c r="D66" s="3" t="n"/>
-      <c r="J66" s="4" t="n"/>
       <c r="K66" s="4" t="n"/>
-      <c r="L66" s="5" t="n"/>
+      <c r="L66" s="4" t="n"/>
+      <c r="M66" s="5" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n"/>
       <c r="D67" s="3" t="n"/>
-      <c r="J67" s="4" t="n"/>
       <c r="K67" s="4" t="n"/>
-      <c r="L67" s="5" t="n"/>
+      <c r="L67" s="4" t="n"/>
+      <c r="M67" s="5" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n"/>
       <c r="D68" s="3" t="n"/>
-      <c r="J68" s="4" t="n"/>
       <c r="K68" s="4" t="n"/>
-      <c r="L68" s="5" t="n"/>
+      <c r="L68" s="4" t="n"/>
+      <c r="M68" s="5" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n"/>
       <c r="D69" s="3" t="n"/>
-      <c r="J69" s="4" t="n"/>
       <c r="K69" s="4" t="n"/>
-      <c r="L69" s="5" t="n"/>
+      <c r="L69" s="4" t="n"/>
+      <c r="M69" s="5" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n"/>
       <c r="D70" s="3" t="n"/>
-      <c r="J70" s="4" t="n"/>
       <c r="K70" s="4" t="n"/>
-      <c r="L70" s="5" t="n"/>
+      <c r="L70" s="4" t="n"/>
+      <c r="M70" s="5" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n"/>
       <c r="D71" s="3" t="n"/>
-      <c r="J71" s="4" t="n"/>
       <c r="K71" s="4" t="n"/>
-      <c r="L71" s="5" t="n"/>
+      <c r="L71" s="4" t="n"/>
+      <c r="M71" s="5" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n"/>
       <c r="D72" s="3" t="n"/>
-      <c r="J72" s="4" t="n"/>
       <c r="K72" s="4" t="n"/>
-      <c r="L72" s="5" t="n"/>
+      <c r="L72" s="4" t="n"/>
+      <c r="M72" s="5" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n"/>
       <c r="D73" s="3" t="n"/>
-      <c r="J73" s="4" t="n"/>
       <c r="K73" s="4" t="n"/>
-      <c r="L73" s="5" t="n"/>
+      <c r="L73" s="4" t="n"/>
+      <c r="M73" s="5" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n"/>
       <c r="D74" s="3" t="n"/>
-      <c r="J74" s="4" t="n"/>
       <c r="K74" s="4" t="n"/>
-      <c r="L74" s="5" t="n"/>
+      <c r="L74" s="4" t="n"/>
+      <c r="M74" s="5" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n"/>
       <c r="D75" s="3" t="n"/>
-      <c r="J75" s="4" t="n"/>
       <c r="K75" s="4" t="n"/>
-      <c r="L75" s="5" t="n"/>
+      <c r="L75" s="4" t="n"/>
+      <c r="M75" s="5" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n"/>
       <c r="D76" s="3" t="n"/>
-      <c r="J76" s="4" t="n"/>
       <c r="K76" s="4" t="n"/>
-      <c r="L76" s="5" t="n"/>
+      <c r="L76" s="4" t="n"/>
+      <c r="M76" s="5" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n"/>
       <c r="D77" s="3" t="n"/>
-      <c r="J77" s="4" t="n"/>
       <c r="K77" s="4" t="n"/>
-      <c r="L77" s="5" t="n"/>
+      <c r="L77" s="4" t="n"/>
+      <c r="M77" s="5" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n"/>
       <c r="D78" s="3" t="n"/>
-      <c r="J78" s="4" t="n"/>
       <c r="K78" s="4" t="n"/>
-      <c r="L78" s="5" t="n"/>
+      <c r="L78" s="4" t="n"/>
+      <c r="M78" s="5" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n"/>
       <c r="D79" s="3" t="n"/>
-      <c r="J79" s="4" t="n"/>
       <c r="K79" s="4" t="n"/>
-      <c r="L79" s="5" t="n"/>
+      <c r="L79" s="4" t="n"/>
+      <c r="M79" s="5" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n"/>
       <c r="D80" s="3" t="n"/>
-      <c r="J80" s="4" t="n"/>
       <c r="K80" s="4" t="n"/>
-      <c r="L80" s="5" t="n"/>
+      <c r="L80" s="4" t="n"/>
+      <c r="M80" s="5" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n"/>
       <c r="D81" s="3" t="n"/>
-      <c r="J81" s="4" t="n"/>
       <c r="K81" s="4" t="n"/>
-      <c r="L81" s="5" t="n"/>
+      <c r="L81" s="4" t="n"/>
+      <c r="M81" s="5" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n"/>
       <c r="D82" s="3" t="n"/>
-      <c r="J82" s="4" t="n"/>
       <c r="K82" s="4" t="n"/>
-      <c r="L82" s="5" t="n"/>
+      <c r="L82" s="4" t="n"/>
+      <c r="M82" s="5" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n"/>
       <c r="D83" s="3" t="n"/>
-      <c r="J83" s="4" t="n"/>
       <c r="K83" s="4" t="n"/>
-      <c r="L83" s="5" t="n"/>
+      <c r="L83" s="4" t="n"/>
+      <c r="M83" s="5" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n"/>
       <c r="D84" s="3" t="n"/>
-      <c r="J84" s="4" t="n"/>
       <c r="K84" s="4" t="n"/>
-      <c r="L84" s="5" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="5" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n"/>
       <c r="D85" s="3" t="n"/>
-      <c r="J85" s="4" t="n"/>
       <c r="K85" s="4" t="n"/>
-      <c r="L85" s="5" t="n"/>
+      <c r="L85" s="4" t="n"/>
+      <c r="M85" s="5" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n"/>
       <c r="D86" s="3" t="n"/>
-      <c r="J86" s="4" t="n"/>
       <c r="K86" s="4" t="n"/>
-      <c r="L86" s="5" t="n"/>
+      <c r="L86" s="4" t="n"/>
+      <c r="M86" s="5" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n"/>
       <c r="D87" s="3" t="n"/>
-      <c r="J87" s="4" t="n"/>
       <c r="K87" s="4" t="n"/>
-      <c r="L87" s="5" t="n"/>
+      <c r="L87" s="4" t="n"/>
+      <c r="M87" s="5" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n"/>
       <c r="D88" s="3" t="n"/>
-      <c r="J88" s="4" t="n"/>
       <c r="K88" s="4" t="n"/>
-      <c r="L88" s="5" t="n"/>
+      <c r="L88" s="4" t="n"/>
+      <c r="M88" s="5" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n"/>
       <c r="D89" s="3" t="n"/>
-      <c r="J89" s="4" t="n"/>
       <c r="K89" s="4" t="n"/>
-      <c r="L89" s="5" t="n"/>
+      <c r="L89" s="4" t="n"/>
+      <c r="M89" s="5" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n"/>
       <c r="D90" s="3" t="n"/>
-      <c r="J90" s="4" t="n"/>
       <c r="K90" s="4" t="n"/>
-      <c r="L90" s="5" t="n"/>
+      <c r="L90" s="4" t="n"/>
+      <c r="M90" s="5" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n"/>
       <c r="D91" s="3" t="n"/>
-      <c r="J91" s="4" t="n"/>
       <c r="K91" s="4" t="n"/>
-      <c r="L91" s="5" t="n"/>
+      <c r="L91" s="4" t="n"/>
+      <c r="M91" s="5" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n"/>
       <c r="D92" s="3" t="n"/>
-      <c r="J92" s="4" t="n"/>
       <c r="K92" s="4" t="n"/>
-      <c r="L92" s="5" t="n"/>
+      <c r="L92" s="4" t="n"/>
+      <c r="M92" s="5" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n"/>
       <c r="D93" s="3" t="n"/>
-      <c r="J93" s="4" t="n"/>
       <c r="K93" s="4" t="n"/>
-      <c r="L93" s="5" t="n"/>
+      <c r="L93" s="4" t="n"/>
+      <c r="M93" s="5" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n"/>
       <c r="D94" s="3" t="n"/>
-      <c r="J94" s="4" t="n"/>
       <c r="K94" s="4" t="n"/>
-      <c r="L94" s="5" t="n"/>
+      <c r="L94" s="4" t="n"/>
+      <c r="M94" s="5" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n"/>
       <c r="D95" s="3" t="n"/>
-      <c r="J95" s="4" t="n"/>
       <c r="K95" s="4" t="n"/>
-      <c r="L95" s="5" t="n"/>
+      <c r="L95" s="4" t="n"/>
+      <c r="M95" s="5" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n"/>
       <c r="D96" s="3" t="n"/>
-      <c r="J96" s="4" t="n"/>
       <c r="K96" s="4" t="n"/>
-      <c r="L96" s="5" t="n"/>
+      <c r="L96" s="4" t="n"/>
+      <c r="M96" s="5" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n"/>
       <c r="D97" s="3" t="n"/>
-      <c r="J97" s="4" t="n"/>
       <c r="K97" s="4" t="n"/>
-      <c r="L97" s="5" t="n"/>
+      <c r="L97" s="4" t="n"/>
+      <c r="M97" s="5" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n"/>
       <c r="D98" s="3" t="n"/>
-      <c r="J98" s="4" t="n"/>
       <c r="K98" s="4" t="n"/>
-      <c r="L98" s="5" t="n"/>
+      <c r="L98" s="4" t="n"/>
+      <c r="M98" s="5" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n"/>
       <c r="D99" s="3" t="n"/>
-      <c r="J99" s="4" t="n"/>
       <c r="K99" s="4" t="n"/>
-      <c r="L99" s="5" t="n"/>
+      <c r="L99" s="4" t="n"/>
+      <c r="M99" s="5" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n"/>
       <c r="D100" s="3" t="n"/>
-      <c r="J100" s="4" t="n"/>
       <c r="K100" s="4" t="n"/>
-      <c r="L100" s="5" t="n"/>
+      <c r="L100" s="4" t="n"/>
+      <c r="M100" s="5" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n"/>
       <c r="D101" s="3" t="n"/>
-      <c r="J101" s="4" t="n"/>
       <c r="K101" s="4" t="n"/>
-      <c r="L101" s="5" t="n"/>
+      <c r="L101" s="4" t="n"/>
+      <c r="M101" s="5" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n"/>
       <c r="D102" s="3" t="n"/>
-      <c r="J102" s="4" t="n"/>
       <c r="K102" s="4" t="n"/>
-      <c r="L102" s="5" t="n"/>
+      <c r="L102" s="4" t="n"/>
+      <c r="M102" s="5" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n"/>
       <c r="D103" s="3" t="n"/>
-      <c r="J103" s="4" t="n"/>
       <c r="K103" s="4" t="n"/>
-      <c r="L103" s="5" t="n"/>
+      <c r="L103" s="4" t="n"/>
+      <c r="M103" s="5" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n"/>
       <c r="D104" s="3" t="n"/>
-      <c r="J104" s="4" t="n"/>
       <c r="K104" s="4" t="n"/>
-      <c r="L104" s="5" t="n"/>
+      <c r="L104" s="4" t="n"/>
+      <c r="M104" s="5" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n"/>
       <c r="D105" s="3" t="n"/>
-      <c r="J105" s="4" t="n"/>
       <c r="K105" s="4" t="n"/>
-      <c r="L105" s="5" t="n"/>
+      <c r="L105" s="4" t="n"/>
+      <c r="M105" s="5" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n"/>
       <c r="D106" s="3" t="n"/>
-      <c r="J106" s="4" t="n"/>
       <c r="K106" s="4" t="n"/>
-      <c r="L106" s="5" t="n"/>
+      <c r="L106" s="4" t="n"/>
+      <c r="M106" s="5" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n"/>
       <c r="D107" s="3" t="n"/>
-      <c r="J107" s="4" t="n"/>
       <c r="K107" s="4" t="n"/>
-      <c r="L107" s="5" t="n"/>
+      <c r="L107" s="4" t="n"/>
+      <c r="M107" s="5" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n"/>
       <c r="D108" s="3" t="n"/>
-      <c r="J108" s="4" t="n"/>
       <c r="K108" s="4" t="n"/>
-      <c r="L108" s="5" t="n"/>
+      <c r="L108" s="4" t="n"/>
+      <c r="M108" s="5" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n"/>
       <c r="D109" s="3" t="n"/>
-      <c r="J109" s="4" t="n"/>
       <c r="K109" s="4" t="n"/>
-      <c r="L109" s="5" t="n"/>
+      <c r="L109" s="4" t="n"/>
+      <c r="M109" s="5" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n"/>
       <c r="D110" s="3" t="n"/>
-      <c r="J110" s="4" t="n"/>
       <c r="K110" s="4" t="n"/>
-      <c r="L110" s="5" t="n"/>
+      <c r="L110" s="4" t="n"/>
+      <c r="M110" s="5" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n"/>
       <c r="D111" s="3" t="n"/>
-      <c r="J111" s="4" t="n"/>
       <c r="K111" s="4" t="n"/>
-      <c r="L111" s="5" t="n"/>
+      <c r="L111" s="4" t="n"/>
+      <c r="M111" s="5" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n"/>
       <c r="D112" s="3" t="n"/>
-      <c r="J112" s="4" t="n"/>
       <c r="K112" s="4" t="n"/>
-      <c r="L112" s="5" t="n"/>
+      <c r="L112" s="4" t="n"/>
+      <c r="M112" s="5" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n"/>
       <c r="D113" s="3" t="n"/>
-      <c r="J113" s="4" t="n"/>
       <c r="K113" s="4" t="n"/>
-      <c r="L113" s="5" t="n"/>
+      <c r="L113" s="4" t="n"/>
+      <c r="M113" s="5" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n"/>
       <c r="D114" s="3" t="n"/>
-      <c r="J114" s="4" t="n"/>
       <c r="K114" s="4" t="n"/>
-      <c r="L114" s="5" t="n"/>
+      <c r="L114" s="4" t="n"/>
+      <c r="M114" s="5" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n"/>
       <c r="D115" s="3" t="n"/>
-      <c r="J115" s="4" t="n"/>
       <c r="K115" s="4" t="n"/>
-      <c r="L115" s="5" t="n"/>
+      <c r="L115" s="4" t="n"/>
+      <c r="M115" s="5" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n"/>
       <c r="D116" s="3" t="n"/>
-      <c r="J116" s="4" t="n"/>
       <c r="K116" s="4" t="n"/>
-      <c r="L116" s="5" t="n"/>
+      <c r="L116" s="4" t="n"/>
+      <c r="M116" s="5" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n"/>
       <c r="D117" s="3" t="n"/>
-      <c r="J117" s="4" t="n"/>
       <c r="K117" s="4" t="n"/>
-      <c r="L117" s="5" t="n"/>
+      <c r="L117" s="4" t="n"/>
+      <c r="M117" s="5" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n"/>
       <c r="D118" s="3" t="n"/>
-      <c r="J118" s="4" t="n"/>
       <c r="K118" s="4" t="n"/>
-      <c r="L118" s="5" t="n"/>
+      <c r="L118" s="4" t="n"/>
+      <c r="M118" s="5" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n"/>
       <c r="D119" s="3" t="n"/>
-      <c r="J119" s="4" t="n"/>
       <c r="K119" s="4" t="n"/>
-      <c r="L119" s="5" t="n"/>
+      <c r="L119" s="4" t="n"/>
+      <c r="M119" s="5" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n"/>
       <c r="D120" s="3" t="n"/>
-      <c r="J120" s="4" t="n"/>
       <c r="K120" s="4" t="n"/>
-      <c r="L120" s="5" t="n"/>
+      <c r="L120" s="4" t="n"/>
+      <c r="M120" s="5" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n"/>
       <c r="D121" s="3" t="n"/>
-      <c r="J121" s="4" t="n"/>
       <c r="K121" s="4" t="n"/>
-      <c r="L121" s="5" t="n"/>
+      <c r="L121" s="4" t="n"/>
+      <c r="M121" s="5" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n"/>
       <c r="D122" s="3" t="n"/>
-      <c r="J122" s="4" t="n"/>
       <c r="K122" s="4" t="n"/>
-      <c r="L122" s="5" t="n"/>
+      <c r="L122" s="4" t="n"/>
+      <c r="M122" s="5" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n"/>
       <c r="D123" s="3" t="n"/>
-      <c r="J123" s="4" t="n"/>
       <c r="K123" s="4" t="n"/>
-      <c r="L123" s="5" t="n"/>
+      <c r="L123" s="4" t="n"/>
+      <c r="M123" s="5" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n"/>
       <c r="D124" s="3" t="n"/>
-      <c r="J124" s="4" t="n"/>
       <c r="K124" s="4" t="n"/>
-      <c r="L124" s="5" t="n"/>
+      <c r="L124" s="4" t="n"/>
+      <c r="M124" s="5" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n"/>
       <c r="D125" s="3" t="n"/>
-      <c r="J125" s="4" t="n"/>
       <c r="K125" s="4" t="n"/>
-      <c r="L125" s="5" t="n"/>
+      <c r="L125" s="4" t="n"/>
+      <c r="M125" s="5" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n"/>
       <c r="D126" s="3" t="n"/>
-      <c r="J126" s="4" t="n"/>
       <c r="K126" s="4" t="n"/>
-      <c r="L126" s="5" t="n"/>
+      <c r="L126" s="4" t="n"/>
+      <c r="M126" s="5" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n"/>
       <c r="D127" s="3" t="n"/>
-      <c r="J127" s="4" t="n"/>
       <c r="K127" s="4" t="n"/>
-      <c r="L127" s="5" t="n"/>
+      <c r="L127" s="4" t="n"/>
+      <c r="M127" s="5" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n"/>
       <c r="D128" s="3" t="n"/>
-      <c r="J128" s="4" t="n"/>
       <c r="K128" s="4" t="n"/>
-      <c r="L128" s="5" t="n"/>
+      <c r="L128" s="4" t="n"/>
+      <c r="M128" s="5" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n"/>
       <c r="D129" s="3" t="n"/>
-      <c r="J129" s="4" t="n"/>
       <c r="K129" s="4" t="n"/>
-      <c r="L129" s="5" t="n"/>
+      <c r="L129" s="4" t="n"/>
+      <c r="M129" s="5" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n"/>
       <c r="D130" s="3" t="n"/>
-      <c r="J130" s="4" t="n"/>
       <c r="K130" s="4" t="n"/>
-      <c r="L130" s="5" t="n"/>
+      <c r="L130" s="4" t="n"/>
+      <c r="M130" s="5" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n"/>
       <c r="D131" s="3" t="n"/>
-      <c r="J131" s="4" t="n"/>
       <c r="K131" s="4" t="n"/>
-      <c r="L131" s="5" t="n"/>
+      <c r="L131" s="4" t="n"/>
+      <c r="M131" s="5" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n"/>
       <c r="D132" s="3" t="n"/>
-      <c r="J132" s="4" t="n"/>
       <c r="K132" s="4" t="n"/>
-      <c r="L132" s="5" t="n"/>
+      <c r="L132" s="4" t="n"/>
+      <c r="M132" s="5" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n"/>
       <c r="D133" s="3" t="n"/>
-      <c r="J133" s="4" t="n"/>
       <c r="K133" s="4" t="n"/>
-      <c r="L133" s="5" t="n"/>
+      <c r="L133" s="4" t="n"/>
+      <c r="M133" s="5" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n"/>
       <c r="D134" s="3" t="n"/>
-      <c r="J134" s="4" t="n"/>
       <c r="K134" s="4" t="n"/>
-      <c r="L134" s="5" t="n"/>
+      <c r="L134" s="4" t="n"/>
+      <c r="M134" s="5" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n"/>
       <c r="D135" s="3" t="n"/>
-      <c r="J135" s="4" t="n"/>
       <c r="K135" s="4" t="n"/>
-      <c r="L135" s="5" t="n"/>
+      <c r="L135" s="4" t="n"/>
+      <c r="M135" s="5" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n"/>
       <c r="D136" s="3" t="n"/>
-      <c r="J136" s="4" t="n"/>
       <c r="K136" s="4" t="n"/>
-      <c r="L136" s="5" t="n"/>
+      <c r="L136" s="4" t="n"/>
+      <c r="M136" s="5" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n"/>
       <c r="D137" s="3" t="n"/>
-      <c r="J137" s="4" t="n"/>
       <c r="K137" s="4" t="n"/>
-      <c r="L137" s="5" t="n"/>
+      <c r="L137" s="4" t="n"/>
+      <c r="M137" s="5" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n"/>
       <c r="D138" s="3" t="n"/>
-      <c r="J138" s="4" t="n"/>
       <c r="K138" s="4" t="n"/>
-      <c r="L138" s="5" t="n"/>
+      <c r="L138" s="4" t="n"/>
+      <c r="M138" s="5" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n"/>
       <c r="D139" s="3" t="n"/>
-      <c r="J139" s="4" t="n"/>
       <c r="K139" s="4" t="n"/>
-      <c r="L139" s="5" t="n"/>
+      <c r="L139" s="4" t="n"/>
+      <c r="M139" s="5" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n"/>
       <c r="D140" s="3" t="n"/>
-      <c r="J140" s="4" t="n"/>
       <c r="K140" s="4" t="n"/>
-      <c r="L140" s="5" t="n"/>
+      <c r="L140" s="4" t="n"/>
+      <c r="M140" s="5" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n"/>
       <c r="D141" s="3" t="n"/>
-      <c r="J141" s="4" t="n"/>
       <c r="K141" s="4" t="n"/>
-      <c r="L141" s="5" t="n"/>
+      <c r="L141" s="4" t="n"/>
+      <c r="M141" s="5" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n"/>
       <c r="D142" s="3" t="n"/>
-      <c r="J142" s="4" t="n"/>
       <c r="K142" s="4" t="n"/>
-      <c r="L142" s="5" t="n"/>
+      <c r="L142" s="4" t="n"/>
+      <c r="M142" s="5" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n"/>
       <c r="D143" s="3" t="n"/>
-      <c r="J143" s="4" t="n"/>
       <c r="K143" s="4" t="n"/>
-      <c r="L143" s="5" t="n"/>
+      <c r="L143" s="4" t="n"/>
+      <c r="M143" s="5" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n"/>
       <c r="D144" s="3" t="n"/>
-      <c r="J144" s="4" t="n"/>
       <c r="K144" s="4" t="n"/>
-      <c r="L144" s="5" t="n"/>
+      <c r="L144" s="4" t="n"/>
+      <c r="M144" s="5" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n"/>
       <c r="D145" s="3" t="n"/>
-      <c r="J145" s="4" t="n"/>
       <c r="K145" s="4" t="n"/>
-      <c r="L145" s="5" t="n"/>
+      <c r="L145" s="4" t="n"/>
+      <c r="M145" s="5" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n"/>
       <c r="D146" s="3" t="n"/>
-      <c r="J146" s="4" t="n"/>
       <c r="K146" s="4" t="n"/>
-      <c r="L146" s="5" t="n"/>
+      <c r="L146" s="4" t="n"/>
+      <c r="M146" s="5" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n"/>
       <c r="D147" s="3" t="n"/>
-      <c r="J147" s="4" t="n"/>
       <c r="K147" s="4" t="n"/>
-      <c r="L147" s="5" t="n"/>
+      <c r="L147" s="4" t="n"/>
+      <c r="M147" s="5" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n"/>
       <c r="D148" s="3" t="n"/>
-      <c r="J148" s="4" t="n"/>
       <c r="K148" s="4" t="n"/>
-      <c r="L148" s="5" t="n"/>
+      <c r="L148" s="4" t="n"/>
+      <c r="M148" s="5" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n"/>
       <c r="D149" s="3" t="n"/>
-      <c r="J149" s="4" t="n"/>
       <c r="K149" s="4" t="n"/>
-      <c r="L149" s="5" t="n"/>
+      <c r="L149" s="4" t="n"/>
+      <c r="M149" s="5" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n"/>
       <c r="D150" s="3" t="n"/>
-      <c r="J150" s="4" t="n"/>
       <c r="K150" s="4" t="n"/>
-      <c r="L150" s="5" t="n"/>
+      <c r="L150" s="4" t="n"/>
+      <c r="M150" s="5" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n"/>
       <c r="D151" s="3" t="n"/>
-      <c r="J151" s="4" t="n"/>
       <c r="K151" s="4" t="n"/>
-      <c r="L151" s="5" t="n"/>
+      <c r="L151" s="4" t="n"/>
+      <c r="M151" s="5" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n"/>
       <c r="D152" s="3" t="n"/>
-      <c r="J152" s="4" t="n"/>
       <c r="K152" s="4" t="n"/>
-      <c r="L152" s="5" t="n"/>
+      <c r="L152" s="4" t="n"/>
+      <c r="M152" s="5" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n"/>
       <c r="D153" s="3" t="n"/>
-      <c r="J153" s="4" t="n"/>
       <c r="K153" s="4" t="n"/>
-      <c r="L153" s="5" t="n"/>
+      <c r="L153" s="4" t="n"/>
+      <c r="M153" s="5" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n"/>
       <c r="D154" s="3" t="n"/>
-      <c r="J154" s="4" t="n"/>
       <c r="K154" s="4" t="n"/>
-      <c r="L154" s="5" t="n"/>
+      <c r="L154" s="4" t="n"/>
+      <c r="M154" s="5" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n"/>
       <c r="D155" s="3" t="n"/>
-      <c r="J155" s="4" t="n"/>
       <c r="K155" s="4" t="n"/>
-      <c r="L155" s="5" t="n"/>
+      <c r="L155" s="4" t="n"/>
+      <c r="M155" s="5" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n"/>
       <c r="D156" s="3" t="n"/>
-      <c r="J156" s="4" t="n"/>
       <c r="K156" s="4" t="n"/>
-      <c r="L156" s="5" t="n"/>
+      <c r="L156" s="4" t="n"/>
+      <c r="M156" s="5" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n"/>
       <c r="D157" s="3" t="n"/>
-      <c r="J157" s="4" t="n"/>
       <c r="K157" s="4" t="n"/>
-      <c r="L157" s="5" t="n"/>
+      <c r="L157" s="4" t="n"/>
+      <c r="M157" s="5" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n"/>
       <c r="D158" s="3" t="n"/>
-      <c r="J158" s="4" t="n"/>
       <c r="K158" s="4" t="n"/>
-      <c r="L158" s="5" t="n"/>
+      <c r="L158" s="4" t="n"/>
+      <c r="M158" s="5" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n"/>
       <c r="D159" s="3" t="n"/>
-      <c r="J159" s="4" t="n"/>
       <c r="K159" s="4" t="n"/>
-      <c r="L159" s="5" t="n"/>
+      <c r="L159" s="4" t="n"/>
+      <c r="M159" s="5" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n"/>
       <c r="D160" s="3" t="n"/>
-      <c r="J160" s="4" t="n"/>
       <c r="K160" s="4" t="n"/>
-      <c r="L160" s="5" t="n"/>
+      <c r="L160" s="4" t="n"/>
+      <c r="M160" s="5" t="n"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n"/>
       <c r="D161" s="3" t="n"/>
-      <c r="J161" s="4" t="n"/>
       <c r="K161" s="4" t="n"/>
-      <c r="L161" s="5" t="n"/>
+      <c r="L161" s="4" t="n"/>
+      <c r="M161" s="5" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n"/>
       <c r="D162" s="3" t="n"/>
-      <c r="J162" s="4" t="n"/>
       <c r="K162" s="4" t="n"/>
-      <c r="L162" s="5" t="n"/>
+      <c r="L162" s="4" t="n"/>
+      <c r="M162" s="5" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n"/>
       <c r="D163" s="3" t="n"/>
-      <c r="J163" s="4" t="n"/>
       <c r="K163" s="4" t="n"/>
-      <c r="L163" s="5" t="n"/>
+      <c r="L163" s="4" t="n"/>
+      <c r="M163" s="5" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n"/>
       <c r="D164" s="3" t="n"/>
-      <c r="J164" s="4" t="n"/>
       <c r="K164" s="4" t="n"/>
-      <c r="L164" s="5" t="n"/>
+      <c r="L164" s="4" t="n"/>
+      <c r="M164" s="5" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n"/>
       <c r="D165" s="3" t="n"/>
-      <c r="J165" s="4" t="n"/>
       <c r="K165" s="4" t="n"/>
-      <c r="L165" s="5" t="n"/>
+      <c r="L165" s="4" t="n"/>
+      <c r="M165" s="5" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n"/>
       <c r="D166" s="3" t="n"/>
-      <c r="J166" s="4" t="n"/>
       <c r="K166" s="4" t="n"/>
-      <c r="L166" s="5" t="n"/>
+      <c r="L166" s="4" t="n"/>
+      <c r="M166" s="5" t="n"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n"/>
       <c r="D167" s="3" t="n"/>
-      <c r="J167" s="4" t="n"/>
       <c r="K167" s="4" t="n"/>
-      <c r="L167" s="5" t="n"/>
+      <c r="L167" s="4" t="n"/>
+      <c r="M167" s="5" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n"/>
       <c r="D168" s="3" t="n"/>
-      <c r="J168" s="4" t="n"/>
       <c r="K168" s="4" t="n"/>
-      <c r="L168" s="5" t="n"/>
+      <c r="L168" s="4" t="n"/>
+      <c r="M168" s="5" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n"/>
       <c r="D169" s="3" t="n"/>
-      <c r="J169" s="4" t="n"/>
       <c r="K169" s="4" t="n"/>
-      <c r="L169" s="5" t="n"/>
+      <c r="L169" s="4" t="n"/>
+      <c r="M169" s="5" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n"/>
       <c r="D170" s="3" t="n"/>
-      <c r="J170" s="4" t="n"/>
       <c r="K170" s="4" t="n"/>
-      <c r="L170" s="5" t="n"/>
+      <c r="L170" s="4" t="n"/>
+      <c r="M170" s="5" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n"/>
       <c r="D171" s="3" t="n"/>
-      <c r="J171" s="4" t="n"/>
       <c r="K171" s="4" t="n"/>
-      <c r="L171" s="5" t="n"/>
+      <c r="L171" s="4" t="n"/>
+      <c r="M171" s="5" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n"/>
       <c r="D172" s="3" t="n"/>
-      <c r="J172" s="4" t="n"/>
       <c r="K172" s="4" t="n"/>
-      <c r="L172" s="5" t="n"/>
+      <c r="L172" s="4" t="n"/>
+      <c r="M172" s="5" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n"/>
       <c r="D173" s="3" t="n"/>
-      <c r="J173" s="4" t="n"/>
       <c r="K173" s="4" t="n"/>
-      <c r="L173" s="5" t="n"/>
+      <c r="L173" s="4" t="n"/>
+      <c r="M173" s="5" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n"/>
       <c r="D174" s="3" t="n"/>
-      <c r="J174" s="4" t="n"/>
       <c r="K174" s="4" t="n"/>
-      <c r="L174" s="5" t="n"/>
+      <c r="L174" s="4" t="n"/>
+      <c r="M174" s="5" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n"/>
       <c r="D175" s="3" t="n"/>
-      <c r="J175" s="4" t="n"/>
       <c r="K175" s="4" t="n"/>
-      <c r="L175" s="5" t="n"/>
+      <c r="L175" s="4" t="n"/>
+      <c r="M175" s="5" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n"/>
       <c r="D176" s="3" t="n"/>
-      <c r="J176" s="4" t="n"/>
       <c r="K176" s="4" t="n"/>
-      <c r="L176" s="5" t="n"/>
+      <c r="L176" s="4" t="n"/>
+      <c r="M176" s="5" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n"/>
       <c r="D177" s="3" t="n"/>
-      <c r="J177" s="4" t="n"/>
       <c r="K177" s="4" t="n"/>
-      <c r="L177" s="5" t="n"/>
+      <c r="L177" s="4" t="n"/>
+      <c r="M177" s="5" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n"/>
       <c r="D178" s="3" t="n"/>
-      <c r="J178" s="4" t="n"/>
       <c r="K178" s="4" t="n"/>
-      <c r="L178" s="5" t="n"/>
+      <c r="L178" s="4" t="n"/>
+      <c r="M178" s="5" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n"/>
       <c r="D179" s="3" t="n"/>
-      <c r="J179" s="4" t="n"/>
       <c r="K179" s="4" t="n"/>
-      <c r="L179" s="5" t="n"/>
+      <c r="L179" s="4" t="n"/>
+      <c r="M179" s="5" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n"/>
       <c r="D180" s="3" t="n"/>
-      <c r="J180" s="4" t="n"/>
       <c r="K180" s="4" t="n"/>
-      <c r="L180" s="5" t="n"/>
+      <c r="L180" s="4" t="n"/>
+      <c r="M180" s="5" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n"/>
       <c r="D181" s="3" t="n"/>
-      <c r="J181" s="4" t="n"/>
       <c r="K181" s="4" t="n"/>
-      <c r="L181" s="5" t="n"/>
+      <c r="L181" s="4" t="n"/>
+      <c r="M181" s="5" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n"/>
       <c r="D182" s="3" t="n"/>
-      <c r="J182" s="4" t="n"/>
       <c r="K182" s="4" t="n"/>
-      <c r="L182" s="5" t="n"/>
+      <c r="L182" s="4" t="n"/>
+      <c r="M182" s="5" t="n"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n"/>
       <c r="D183" s="3" t="n"/>
-      <c r="J183" s="4" t="n"/>
       <c r="K183" s="4" t="n"/>
-      <c r="L183" s="5" t="n"/>
+      <c r="L183" s="4" t="n"/>
+      <c r="M183" s="5" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n"/>
       <c r="D184" s="3" t="n"/>
-      <c r="J184" s="4" t="n"/>
       <c r="K184" s="4" t="n"/>
-      <c r="L184" s="5" t="n"/>
+      <c r="L184" s="4" t="n"/>
+      <c r="M184" s="5" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n"/>
       <c r="D185" s="3" t="n"/>
-      <c r="J185" s="4" t="n"/>
       <c r="K185" s="4" t="n"/>
-      <c r="L185" s="5" t="n"/>
+      <c r="L185" s="4" t="n"/>
+      <c r="M185" s="5" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n"/>
       <c r="D186" s="3" t="n"/>
-      <c r="J186" s="4" t="n"/>
       <c r="K186" s="4" t="n"/>
-      <c r="L186" s="5" t="n"/>
+      <c r="L186" s="4" t="n"/>
+      <c r="M186" s="5" t="n"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n"/>
       <c r="D187" s="3" t="n"/>
-      <c r="J187" s="4" t="n"/>
       <c r="K187" s="4" t="n"/>
-      <c r="L187" s="5" t="n"/>
+      <c r="L187" s="4" t="n"/>
+      <c r="M187" s="5" t="n"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n"/>
       <c r="D188" s="3" t="n"/>
-      <c r="J188" s="4" t="n"/>
       <c r="K188" s="4" t="n"/>
-      <c r="L188" s="5" t="n"/>
+      <c r="L188" s="4" t="n"/>
+      <c r="M188" s="5" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n"/>
       <c r="D189" s="3" t="n"/>
-      <c r="J189" s="4" t="n"/>
       <c r="K189" s="4" t="n"/>
-      <c r="L189" s="5" t="n"/>
+      <c r="L189" s="4" t="n"/>
+      <c r="M189" s="5" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n"/>
       <c r="D190" s="3" t="n"/>
-      <c r="J190" s="4" t="n"/>
       <c r="K190" s="4" t="n"/>
-      <c r="L190" s="5" t="n"/>
+      <c r="L190" s="4" t="n"/>
+      <c r="M190" s="5" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n"/>
       <c r="D191" s="3" t="n"/>
-      <c r="J191" s="4" t="n"/>
       <c r="K191" s="4" t="n"/>
-      <c r="L191" s="5" t="n"/>
+      <c r="L191" s="4" t="n"/>
+      <c r="M191" s="5" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n"/>
       <c r="D192" s="3" t="n"/>
-      <c r="J192" s="4" t="n"/>
       <c r="K192" s="4" t="n"/>
-      <c r="L192" s="5" t="n"/>
+      <c r="L192" s="4" t="n"/>
+      <c r="M192" s="5" t="n"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n"/>
       <c r="D193" s="3" t="n"/>
-      <c r="J193" s="4" t="n"/>
       <c r="K193" s="4" t="n"/>
-      <c r="L193" s="5" t="n"/>
+      <c r="L193" s="4" t="n"/>
+      <c r="M193" s="5" t="n"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n"/>
       <c r="D194" s="3" t="n"/>
-      <c r="J194" s="4" t="n"/>
       <c r="K194" s="4" t="n"/>
-      <c r="L194" s="5" t="n"/>
+      <c r="L194" s="4" t="n"/>
+      <c r="M194" s="5" t="n"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n"/>
       <c r="D195" s="3" t="n"/>
-      <c r="J195" s="4" t="n"/>
       <c r="K195" s="4" t="n"/>
-      <c r="L195" s="5" t="n"/>
+      <c r="L195" s="4" t="n"/>
+      <c r="M195" s="5" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n"/>
       <c r="D196" s="3" t="n"/>
-      <c r="J196" s="4" t="n"/>
       <c r="K196" s="4" t="n"/>
-      <c r="L196" s="5" t="n"/>
+      <c r="L196" s="4" t="n"/>
+      <c r="M196" s="5" t="n"/>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n"/>
       <c r="D197" s="3" t="n"/>
-      <c r="J197" s="4" t="n"/>
       <c r="K197" s="4" t="n"/>
-      <c r="L197" s="5" t="n"/>
+      <c r="L197" s="4" t="n"/>
+      <c r="M197" s="5" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n"/>
       <c r="D198" s="3" t="n"/>
-      <c r="J198" s="4" t="n"/>
       <c r="K198" s="4" t="n"/>
-      <c r="L198" s="5" t="n"/>
+      <c r="L198" s="4" t="n"/>
+      <c r="M198" s="5" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n"/>
       <c r="D199" s="3" t="n"/>
-      <c r="J199" s="4" t="n"/>
       <c r="K199" s="4" t="n"/>
-      <c r="L199" s="5" t="n"/>
+      <c r="L199" s="4" t="n"/>
+      <c r="M199" s="5" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n"/>
       <c r="D200" s="3" t="n"/>
-      <c r="J200" s="4" t="n"/>
       <c r="K200" s="4" t="n"/>
-      <c r="L200" s="5" t="n"/>
+      <c r="L200" s="4" t="n"/>
+      <c r="M200" s="5" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n"/>
       <c r="D201" s="3" t="n"/>
-      <c r="J201" s="4" t="n"/>
       <c r="K201" s="4" t="n"/>
-      <c r="L201" s="5" t="n"/>
+      <c r="L201" s="4" t="n"/>
+      <c r="M201" s="5" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n"/>
       <c r="D202" s="3" t="n"/>
-      <c r="J202" s="4" t="n"/>
       <c r="K202" s="4" t="n"/>
-      <c r="L202" s="5" t="n"/>
+      <c r="L202" s="4" t="n"/>
+      <c r="M202" s="5" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n"/>
       <c r="D203" s="3" t="n"/>
-      <c r="J203" s="4" t="n"/>
       <c r="K203" s="4" t="n"/>
-      <c r="L203" s="5" t="n"/>
+      <c r="L203" s="4" t="n"/>
+      <c r="M203" s="5" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n"/>
       <c r="D204" s="3" t="n"/>
-      <c r="J204" s="4" t="n"/>
       <c r="K204" s="4" t="n"/>
-      <c r="L204" s="5" t="n"/>
+      <c r="L204" s="4" t="n"/>
+      <c r="M204" s="5" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n"/>
       <c r="D205" s="3" t="n"/>
-      <c r="J205" s="4" t="n"/>
       <c r="K205" s="4" t="n"/>
-      <c r="L205" s="5" t="n"/>
+      <c r="L205" s="4" t="n"/>
+      <c r="M205" s="5" t="n"/>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n"/>
       <c r="D206" s="3" t="n"/>
-      <c r="J206" s="4" t="n"/>
       <c r="K206" s="4" t="n"/>
-      <c r="L206" s="5" t="n"/>
+      <c r="L206" s="4" t="n"/>
+      <c r="M206" s="5" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n"/>
       <c r="D207" s="3" t="n"/>
-      <c r="J207" s="4" t="n"/>
       <c r="K207" s="4" t="n"/>
-      <c r="L207" s="5" t="n"/>
+      <c r="L207" s="4" t="n"/>
+      <c r="M207" s="5" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n"/>
       <c r="D208" s="3" t="n"/>
-      <c r="J208" s="4" t="n"/>
       <c r="K208" s="4" t="n"/>
-      <c r="L208" s="5" t="n"/>
+      <c r="L208" s="4" t="n"/>
+      <c r="M208" s="5" t="n"/>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n"/>
       <c r="D209" s="3" t="n"/>
-      <c r="J209" s="4" t="n"/>
       <c r="K209" s="4" t="n"/>
-      <c r="L209" s="5" t="n"/>
+      <c r="L209" s="4" t="n"/>
+      <c r="M209" s="5" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n"/>
       <c r="D210" s="3" t="n"/>
-      <c r="J210" s="4" t="n"/>
       <c r="K210" s="4" t="n"/>
-      <c r="L210" s="5" t="n"/>
+      <c r="L210" s="4" t="n"/>
+      <c r="M210" s="5" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n"/>
       <c r="D211" s="3" t="n"/>
-      <c r="J211" s="4" t="n"/>
       <c r="K211" s="4" t="n"/>
-      <c r="L211" s="5" t="n"/>
+      <c r="L211" s="4" t="n"/>
+      <c r="M211" s="5" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n"/>
       <c r="D212" s="3" t="n"/>
-      <c r="J212" s="4" t="n"/>
       <c r="K212" s="4" t="n"/>
-      <c r="L212" s="5" t="n"/>
+      <c r="L212" s="4" t="n"/>
+      <c r="M212" s="5" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n"/>
       <c r="D213" s="3" t="n"/>
-      <c r="J213" s="4" t="n"/>
       <c r="K213" s="4" t="n"/>
-      <c r="L213" s="5" t="n"/>
+      <c r="L213" s="4" t="n"/>
+      <c r="M213" s="5" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n"/>
       <c r="D214" s="3" t="n"/>
-      <c r="J214" s="4" t="n"/>
       <c r="K214" s="4" t="n"/>
-      <c r="L214" s="5" t="n"/>
+      <c r="L214" s="4" t="n"/>
+      <c r="M214" s="5" t="n"/>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n"/>
       <c r="D215" s="3" t="n"/>
-      <c r="J215" s="4" t="n"/>
       <c r="K215" s="4" t="n"/>
-      <c r="L215" s="5" t="n"/>
+      <c r="L215" s="4" t="n"/>
+      <c r="M215" s="5" t="n"/>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n"/>
       <c r="D216" s="3" t="n"/>
-      <c r="J216" s="4" t="n"/>
       <c r="K216" s="4" t="n"/>
-      <c r="L216" s="5" t="n"/>
+      <c r="L216" s="4" t="n"/>
+      <c r="M216" s="5" t="n"/>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n"/>
       <c r="D217" s="3" t="n"/>
-      <c r="J217" s="4" t="n"/>
       <c r="K217" s="4" t="n"/>
-      <c r="L217" s="5" t="n"/>
+      <c r="L217" s="4" t="n"/>
+      <c r="M217" s="5" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n"/>
       <c r="D218" s="3" t="n"/>
-      <c r="J218" s="4" t="n"/>
       <c r="K218" s="4" t="n"/>
-      <c r="L218" s="5" t="n"/>
+      <c r="L218" s="4" t="n"/>
+      <c r="M218" s="5" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n"/>
       <c r="D219" s="3" t="n"/>
-      <c r="J219" s="4" t="n"/>
       <c r="K219" s="4" t="n"/>
-      <c r="L219" s="5" t="n"/>
+      <c r="L219" s="4" t="n"/>
+      <c r="M219" s="5" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n"/>
       <c r="D220" s="3" t="n"/>
-      <c r="J220" s="4" t="n"/>
       <c r="K220" s="4" t="n"/>
-      <c r="L220" s="5" t="n"/>
+      <c r="L220" s="4" t="n"/>
+      <c r="M220" s="5" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n"/>
       <c r="D221" s="3" t="n"/>
-      <c r="J221" s="4" t="n"/>
       <c r="K221" s="4" t="n"/>
-      <c r="L221" s="5" t="n"/>
+      <c r="L221" s="4" t="n"/>
+      <c r="M221" s="5" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n"/>
       <c r="D222" s="3" t="n"/>
-      <c r="J222" s="4" t="n"/>
       <c r="K222" s="4" t="n"/>
-      <c r="L222" s="5" t="n"/>
+      <c r="L222" s="4" t="n"/>
+      <c r="M222" s="5" t="n"/>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n"/>
       <c r="D223" s="3" t="n"/>
-      <c r="J223" s="4" t="n"/>
       <c r="K223" s="4" t="n"/>
-      <c r="L223" s="5" t="n"/>
+      <c r="L223" s="4" t="n"/>
+      <c r="M223" s="5" t="n"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n"/>
       <c r="D224" s="3" t="n"/>
-      <c r="J224" s="4" t="n"/>
       <c r="K224" s="4" t="n"/>
-      <c r="L224" s="5" t="n"/>
+      <c r="L224" s="4" t="n"/>
+      <c r="M224" s="5" t="n"/>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n"/>
       <c r="D225" s="3" t="n"/>
-      <c r="J225" s="4" t="n"/>
       <c r="K225" s="4" t="n"/>
-      <c r="L225" s="5" t="n"/>
+      <c r="L225" s="4" t="n"/>
+      <c r="M225" s="5" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n"/>
       <c r="D226" s="3" t="n"/>
-      <c r="J226" s="4" t="n"/>
       <c r="K226" s="4" t="n"/>
-      <c r="L226" s="5" t="n"/>
+      <c r="L226" s="4" t="n"/>
+      <c r="M226" s="5" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n"/>
       <c r="D227" s="3" t="n"/>
-      <c r="J227" s="4" t="n"/>
       <c r="K227" s="4" t="n"/>
-      <c r="L227" s="5" t="n"/>
+      <c r="L227" s="4" t="n"/>
+      <c r="M227" s="5" t="n"/>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n"/>
       <c r="D228" s="3" t="n"/>
-      <c r="J228" s="4" t="n"/>
       <c r="K228" s="4" t="n"/>
-      <c r="L228" s="5" t="n"/>
+      <c r="L228" s="4" t="n"/>
+      <c r="M228" s="5" t="n"/>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n"/>
       <c r="D229" s="3" t="n"/>
-      <c r="J229" s="4" t="n"/>
       <c r="K229" s="4" t="n"/>
-      <c r="L229" s="5" t="n"/>
+      <c r="L229" s="4" t="n"/>
+      <c r="M229" s="5" t="n"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n"/>
       <c r="D230" s="3" t="n"/>
-      <c r="J230" s="4" t="n"/>
       <c r="K230" s="4" t="n"/>
-      <c r="L230" s="5" t="n"/>
+      <c r="L230" s="4" t="n"/>
+      <c r="M230" s="5" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n"/>
       <c r="D231" s="3" t="n"/>
-      <c r="J231" s="4" t="n"/>
       <c r="K231" s="4" t="n"/>
-      <c r="L231" s="5" t="n"/>
+      <c r="L231" s="4" t="n"/>
+      <c r="M231" s="5" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n"/>
       <c r="D232" s="3" t="n"/>
-      <c r="J232" s="4" t="n"/>
       <c r="K232" s="4" t="n"/>
-      <c r="L232" s="5" t="n"/>
+      <c r="L232" s="4" t="n"/>
+      <c r="M232" s="5" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n"/>
       <c r="D233" s="3" t="n"/>
-      <c r="J233" s="4" t="n"/>
       <c r="K233" s="4" t="n"/>
-      <c r="L233" s="5" t="n"/>
+      <c r="L233" s="4" t="n"/>
+      <c r="M233" s="5" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n"/>
       <c r="D234" s="3" t="n"/>
-      <c r="J234" s="4" t="n"/>
       <c r="K234" s="4" t="n"/>
-      <c r="L234" s="5" t="n"/>
+      <c r="L234" s="4" t="n"/>
+      <c r="M234" s="5" t="n"/>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n"/>
       <c r="D235" s="3" t="n"/>
-      <c r="J235" s="4" t="n"/>
       <c r="K235" s="4" t="n"/>
-      <c r="L235" s="5" t="n"/>
+      <c r="L235" s="4" t="n"/>
+      <c r="M235" s="5" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n"/>
       <c r="D236" s="3" t="n"/>
-      <c r="J236" s="4" t="n"/>
       <c r="K236" s="4" t="n"/>
-      <c r="L236" s="5" t="n"/>
+      <c r="L236" s="4" t="n"/>
+      <c r="M236" s="5" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n"/>
       <c r="D237" s="3" t="n"/>
-      <c r="J237" s="4" t="n"/>
       <c r="K237" s="4" t="n"/>
-      <c r="L237" s="5" t="n"/>
+      <c r="L237" s="4" t="n"/>
+      <c r="M237" s="5" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n"/>
       <c r="D238" s="3" t="n"/>
-      <c r="J238" s="4" t="n"/>
       <c r="K238" s="4" t="n"/>
-      <c r="L238" s="5" t="n"/>
+      <c r="L238" s="4" t="n"/>
+      <c r="M238" s="5" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n"/>
       <c r="D239" s="3" t="n"/>
-      <c r="J239" s="4" t="n"/>
       <c r="K239" s="4" t="n"/>
-      <c r="L239" s="5" t="n"/>
+      <c r="L239" s="4" t="n"/>
+      <c r="M239" s="5" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n"/>
       <c r="D240" s="3" t="n"/>
-      <c r="J240" s="4" t="n"/>
       <c r="K240" s="4" t="n"/>
-      <c r="L240" s="5" t="n"/>
+      <c r="L240" s="4" t="n"/>
+      <c r="M240" s="5" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n"/>
       <c r="D241" s="3" t="n"/>
-      <c r="J241" s="4" t="n"/>
       <c r="K241" s="4" t="n"/>
-      <c r="L241" s="5" t="n"/>
+      <c r="L241" s="4" t="n"/>
+      <c r="M241" s="5" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n"/>
       <c r="D242" s="3" t="n"/>
-      <c r="J242" s="4" t="n"/>
       <c r="K242" s="4" t="n"/>
-      <c r="L242" s="5" t="n"/>
+      <c r="L242" s="4" t="n"/>
+      <c r="M242" s="5" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n"/>
       <c r="D243" s="3" t="n"/>
-      <c r="J243" s="4" t="n"/>
       <c r="K243" s="4" t="n"/>
-      <c r="L243" s="5" t="n"/>
+      <c r="L243" s="4" t="n"/>
+      <c r="M243" s="5" t="n"/>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n"/>
       <c r="D244" s="3" t="n"/>
-      <c r="J244" s="4" t="n"/>
       <c r="K244" s="4" t="n"/>
-      <c r="L244" s="5" t="n"/>
+      <c r="L244" s="4" t="n"/>
+      <c r="M244" s="5" t="n"/>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n"/>
       <c r="D245" s="3" t="n"/>
-      <c r="J245" s="4" t="n"/>
       <c r="K245" s="4" t="n"/>
-      <c r="L245" s="5" t="n"/>
+      <c r="L245" s="4" t="n"/>
+      <c r="M245" s="5" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n"/>
       <c r="D246" s="3" t="n"/>
-      <c r="J246" s="4" t="n"/>
       <c r="K246" s="4" t="n"/>
-      <c r="L246" s="5" t="n"/>
+      <c r="L246" s="4" t="n"/>
+      <c r="M246" s="5" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n"/>
       <c r="D247" s="3" t="n"/>
-      <c r="J247" s="4" t="n"/>
       <c r="K247" s="4" t="n"/>
-      <c r="L247" s="5" t="n"/>
+      <c r="L247" s="4" t="n"/>
+      <c r="M247" s="5" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n"/>
       <c r="D248" s="3" t="n"/>
-      <c r="J248" s="4" t="n"/>
       <c r="K248" s="4" t="n"/>
-      <c r="L248" s="5" t="n"/>
+      <c r="L248" s="4" t="n"/>
+      <c r="M248" s="5" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n"/>
       <c r="D249" s="3" t="n"/>
-      <c r="J249" s="4" t="n"/>
       <c r="K249" s="4" t="n"/>
-      <c r="L249" s="5" t="n"/>
+      <c r="L249" s="4" t="n"/>
+      <c r="M249" s="5" t="n"/>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n"/>
       <c r="D250" s="3" t="n"/>
-      <c r="J250" s="4" t="n"/>
       <c r="K250" s="4" t="n"/>
-      <c r="L250" s="5" t="n"/>
+      <c r="L250" s="4" t="n"/>
+      <c r="M250" s="5" t="n"/>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n"/>
       <c r="D251" s="3" t="n"/>
-      <c r="J251" s="4" t="n"/>
       <c r="K251" s="4" t="n"/>
-      <c r="L251" s="5" t="n"/>
+      <c r="L251" s="4" t="n"/>
+      <c r="M251" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/template.xlsx
+++ b/template.xlsx
@@ -18790,7 +18790,7 @@
       <c r="N931" s="39" t="n"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="9">
     <dataValidation sqref="B3:B931" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="출석번호 입력 오류" error="출석번호는 1~50 사이 숫자로 입력해주세요." promptTitle="출석번호" prompt="동명이인 구분을 위해 출석번호(1~50)를 입력하세요." type="whole" operator="between">
       <formula1>1</formula1>
       <formula2>50</formula2>
@@ -18799,6 +18799,27 @@
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
+    <dataValidation sqref="D3:D931" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" promptTitle="성별" prompt="남/여 중 선택" type="list">
+      <formula1>"남,여"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F3:F931" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" promptTitle="학업성취" prompt="좋음/보통/나쁨 중 선택" type="list">
+      <formula1>"좋음,보통,나쁨"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G3:G931" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" promptTitle="교우관계" prompt="좋음/보통/나쁨 중 선택" type="list">
+      <formula1>"좋음,보통,나쁨"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H3:H931" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" promptTitle="학부모민원" prompt="좋음/보통/나쁨 중 선택" type="list">
+      <formula1>"좋음,보통,나쁨"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I3:I931" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" promptTitle="다문화여부" prompt="Y/N 중 선택" type="list">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J3:J931" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" promptTitle="특수여부" prompt="Y/N 중 선택" type="list">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation sqref="K3:K931" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" promptTitle="ADHD여부" prompt="Y/N 중 선택" type="list">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
